--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H2">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I2">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J2">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.249867</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N2">
-        <v>6.749601</v>
+        <v>6.947684</v>
       </c>
       <c r="O2">
-        <v>0.01621423513832461</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P2">
-        <v>0.01621423513832461</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q2">
-        <v>59.78740469116133</v>
+        <v>48.00229678997734</v>
       </c>
       <c r="R2">
-        <v>538.0866422204519</v>
+        <v>432.020671109796</v>
       </c>
       <c r="S2">
-        <v>0.0003808762121470207</v>
+        <v>0.0002788773624899456</v>
       </c>
       <c r="T2">
-        <v>0.0003808762121470206</v>
+        <v>0.0002788773624899457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H3">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I3">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J3">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.707891</v>
       </c>
       <c r="O3">
-        <v>0.02332078998021146</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P3">
-        <v>0.02332078998021146</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q3">
-        <v>85.99169164439245</v>
+        <v>67.07286413526434</v>
       </c>
       <c r="R3">
-        <v>773.925224799532</v>
+        <v>603.6557772173791</v>
       </c>
       <c r="S3">
-        <v>0.0005478108634889903</v>
+        <v>0.0003896710094212519</v>
       </c>
       <c r="T3">
-        <v>0.0005478108634889904</v>
+        <v>0.0003896710094212519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H4">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I4">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J4">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.69315599999999</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N4">
-        <v>146.079468</v>
+        <v>274.464523</v>
       </c>
       <c r="O4">
-        <v>0.3509195348041114</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P4">
-        <v>0.3509195348041114</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q4">
-        <v>1293.959786717104</v>
+        <v>1896.30494008731</v>
       </c>
       <c r="R4">
-        <v>11645.63808045393</v>
+        <v>17066.74446078579</v>
       </c>
       <c r="S4">
-        <v>0.008243182736919102</v>
+        <v>0.01101690034712302</v>
       </c>
       <c r="T4">
-        <v>0.008243182736919104</v>
+        <v>0.01101690034712302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H5">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I5">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J5">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1183283333333333</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N5">
-        <v>0.354985</v>
+        <v>169.175249</v>
       </c>
       <c r="O5">
-        <v>0.0008527630389675126</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P5">
-        <v>0.0008527630389675126</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q5">
-        <v>3.144427626802222</v>
+        <v>1168.850009876142</v>
       </c>
       <c r="R5">
-        <v>28.29984864122</v>
+        <v>10519.65008888528</v>
       </c>
       <c r="S5">
-        <v>2.003160515251348E-05</v>
+        <v>0.006790629401063696</v>
       </c>
       <c r="T5">
-        <v>2.003160515251348E-05</v>
+        <v>0.006790629401063696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.57375066666667</v>
+        <v>1097.996215666667</v>
       </c>
       <c r="H6">
-        <v>79.72125199999999</v>
+        <v>3293.988647</v>
       </c>
       <c r="I6">
-        <v>0.0234902361349606</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J6">
-        <v>0.0234902361349606</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.46143500000001</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N6">
-        <v>253.384305</v>
+        <v>6.947684</v>
       </c>
       <c r="O6">
-        <v>0.608692677038385</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P6">
-        <v>0.608692677038385</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q6">
-        <v>2244.457114638873</v>
+        <v>2542.843579882616</v>
       </c>
       <c r="R6">
-        <v>20200.11403174986</v>
+        <v>22885.59221894355</v>
       </c>
       <c r="S6">
-        <v>0.01429833471725297</v>
+        <v>0.01477307458609399</v>
       </c>
       <c r="T6">
-        <v>0.01429833471725298</v>
+        <v>0.014773074586094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>3293.988647</v>
       </c>
       <c r="I7">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J7">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.249867</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N7">
-        <v>6.749601</v>
+        <v>9.707891</v>
       </c>
       <c r="O7">
-        <v>0.01621423513832461</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P7">
-        <v>0.01621423513832461</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q7">
-        <v>2470.345451753317</v>
+        <v>3553.075860034831</v>
       </c>
       <c r="R7">
-        <v>22233.10906577985</v>
+        <v>31977.68274031348</v>
       </c>
       <c r="S7">
-        <v>0.01573735844896979</v>
+        <v>0.02064218778756642</v>
       </c>
       <c r="T7">
-        <v>0.01573735844896979</v>
+        <v>0.02064218778756642</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I8">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J8">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.235963666666667</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N8">
-        <v>9.707891</v>
+        <v>274.464523</v>
       </c>
       <c r="O8">
-        <v>0.02332078998021146</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P8">
-        <v>0.02332078998021146</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q8">
-        <v>3553.075860034831</v>
+        <v>100453.6691962523</v>
       </c>
       <c r="R8">
-        <v>31977.68274031348</v>
+        <v>904083.0227662703</v>
       </c>
       <c r="S8">
-        <v>0.0226349024854251</v>
+        <v>0.5836023730376497</v>
       </c>
       <c r="T8">
-        <v>0.02263490248542511</v>
+        <v>0.5836023730376498</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I9">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J9">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.69315599999999</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N9">
-        <v>146.079468</v>
+        <v>169.175249</v>
       </c>
       <c r="O9">
-        <v>0.3509195348041114</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P9">
-        <v>0.3509195348041114</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q9">
-        <v>53464.90101686664</v>
+        <v>61917.92772882202</v>
       </c>
       <c r="R9">
-        <v>481184.1091517998</v>
+        <v>557261.3495593981</v>
       </c>
       <c r="S9">
-        <v>0.3405986442681296</v>
+        <v>0.3597225451816783</v>
       </c>
       <c r="T9">
-        <v>0.3405986442681296</v>
+        <v>0.3597225451816784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1097.996215666667</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H10">
-        <v>3293.988647</v>
+        <v>2.996411</v>
       </c>
       <c r="I10">
-        <v>0.9705890111197625</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J10">
-        <v>0.9705890111197626</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1183283333333333</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N10">
-        <v>0.354985</v>
+        <v>6.947684</v>
       </c>
       <c r="O10">
-        <v>0.0008527630389675126</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P10">
-        <v>0.0008527630389675126</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q10">
-        <v>129.9240622061439</v>
+        <v>2.313124084680445</v>
       </c>
       <c r="R10">
-        <v>1169.316559855295</v>
+        <v>20.818116762124</v>
       </c>
       <c r="S10">
-        <v>0.0008276824347109615</v>
+        <v>1.343848080165909E-05</v>
       </c>
       <c r="T10">
-        <v>0.0008276824347109616</v>
+        <v>1.343848080165909E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1097.996215666667</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H11">
-        <v>3293.988647</v>
+        <v>2.996411</v>
       </c>
       <c r="I11">
-        <v>0.9705890111197625</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J11">
-        <v>0.9705890111197626</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.46143500000001</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N11">
-        <v>253.384305</v>
+        <v>9.707891</v>
       </c>
       <c r="O11">
-        <v>0.608692677038385</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P11">
-        <v>0.608692677038385</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q11">
-        <v>92738.33599977617</v>
+        <v>3.232092375466778</v>
       </c>
       <c r="R11">
-        <v>834645.0239979854</v>
+        <v>29.088831379201</v>
       </c>
       <c r="S11">
-        <v>0.5907904234825271</v>
+        <v>1.877738061030108E-05</v>
       </c>
       <c r="T11">
-        <v>0.5907904234825272</v>
+        <v>1.877738061030108E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H12">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I12">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J12">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2.249867</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N12">
-        <v>6.749601</v>
+        <v>274.464523</v>
       </c>
       <c r="O12">
-        <v>0.01621423513832461</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P12">
-        <v>0.01621423513832461</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q12">
-        <v>0.4372624014056666</v>
+        <v>91.37872398077256</v>
       </c>
       <c r="R12">
-        <v>3.935361612651</v>
+        <v>822.408515826953</v>
       </c>
       <c r="S12">
-        <v>2.785584154756282E-06</v>
+        <v>0.0005308799627432708</v>
       </c>
       <c r="T12">
-        <v>2.785584154756282E-06</v>
+        <v>0.0005308799627432709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H13">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I13">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J13">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.235963666666667</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N13">
-        <v>9.707891</v>
+        <v>169.175249</v>
       </c>
       <c r="O13">
-        <v>0.02332078998021146</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P13">
-        <v>0.02332078998021146</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q13">
-        <v>0.6289106172712222</v>
+        <v>56.32428633681545</v>
       </c>
       <c r="R13">
-        <v>5.660195555441</v>
+        <v>506.9185770313391</v>
       </c>
       <c r="S13">
-        <v>4.006480878751368E-06</v>
+        <v>0.0003272253510381871</v>
       </c>
       <c r="T13">
-        <v>4.006480878751369E-06</v>
+        <v>0.0003272253510381872</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1943503333333333</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H14">
-        <v>0.583051</v>
+        <v>3.719404</v>
       </c>
       <c r="I14">
-        <v>0.0001717986775812918</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J14">
-        <v>0.0001717986775812918</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>48.69315599999999</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N14">
-        <v>146.079468</v>
+        <v>6.947684</v>
       </c>
       <c r="O14">
-        <v>0.3509195348041114</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P14">
-        <v>0.3509195348041114</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q14">
-        <v>9.463531099651998</v>
+        <v>2.871249295592889</v>
       </c>
       <c r="R14">
-        <v>85.17177989686799</v>
+        <v>25.841243660336</v>
       </c>
       <c r="S14">
-        <v>6.028751201678843E-05</v>
+        <v>1.668100245514183E-05</v>
       </c>
       <c r="T14">
-        <v>6.028751201678845E-05</v>
+        <v>1.668100245514184E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,87 +1337,87 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1943503333333333</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H15">
-        <v>0.583051</v>
+        <v>3.719404</v>
       </c>
       <c r="I15">
-        <v>0.0001717986775812918</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J15">
-        <v>0.0001717986775812918</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1183283333333333</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N15">
-        <v>0.354985</v>
+        <v>9.707891</v>
       </c>
       <c r="O15">
-        <v>0.0008527630389675126</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P15">
-        <v>0.0008527630389675126</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q15">
-        <v>0.02299715102611111</v>
+        <v>4.011952068551556</v>
       </c>
       <c r="R15">
-        <v>0.206974359235</v>
+        <v>36.107568616964</v>
       </c>
       <c r="S15">
-        <v>1.465035623848222E-07</v>
+        <v>2.330810578104147E-05</v>
       </c>
       <c r="T15">
-        <v>1.465035623848223E-07</v>
+        <v>2.330810578104148E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1943503333333333</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H16">
-        <v>0.583051</v>
+        <v>3.719404</v>
       </c>
       <c r="I16">
-        <v>0.0001717986775812918</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J16">
-        <v>0.0001717986775812918</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.46143500000001</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N16">
-        <v>253.384305</v>
+        <v>274.464523</v>
       </c>
       <c r="O16">
-        <v>0.608692677038385</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P16">
-        <v>0.608692677038385</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q16">
-        <v>16.41510804606167</v>
+        <v>113.4271605226991</v>
       </c>
       <c r="R16">
-        <v>147.735972414555</v>
+        <v>1020.844444704292</v>
       </c>
       <c r="S16">
-        <v>0.0001045725969686109</v>
+        <v>0.0006589740382568253</v>
       </c>
       <c r="T16">
-        <v>0.0001045725969686109</v>
+        <v>0.0006589740382568254</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H17">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I17">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J17">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>2.249867</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N17">
-        <v>6.749601</v>
+        <v>169.175249</v>
       </c>
       <c r="O17">
-        <v>0.01621423513832461</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P17">
-        <v>0.01621423513832461</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q17">
-        <v>13.711967422456</v>
+        <v>69.91456642573289</v>
       </c>
       <c r="R17">
-        <v>123.407706802104</v>
+        <v>629.231097831596</v>
       </c>
       <c r="S17">
-        <v>8.735221473362373E-05</v>
+        <v>0.0004061803536139859</v>
       </c>
       <c r="T17">
-        <v>8.735221473362373E-05</v>
+        <v>0.000406180353613986</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.094568</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H18">
-        <v>18.283704</v>
+        <v>2.652976</v>
       </c>
       <c r="I18">
-        <v>0.005387378065534189</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J18">
-        <v>0.005387378065534191</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.235963666666667</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N18">
-        <v>9.707891</v>
+        <v>6.947684</v>
       </c>
       <c r="O18">
-        <v>0.02332078998021146</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P18">
-        <v>0.02332078998021146</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q18">
-        <v>19.72180061202933</v>
+        <v>2.048004323064889</v>
       </c>
       <c r="R18">
-        <v>177.496205508264</v>
+        <v>18.432038907584</v>
       </c>
       <c r="S18">
-        <v>0.0001256379124103207</v>
+        <v>1.189822325550878E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001256379124103207</v>
+        <v>1.189822325550878E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.094568</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H19">
-        <v>18.283704</v>
+        <v>2.652976</v>
       </c>
       <c r="I19">
-        <v>0.005387378065534189</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J19">
-        <v>0.005387378065534191</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.69315599999999</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N19">
-        <v>146.079468</v>
+        <v>9.707891</v>
       </c>
       <c r="O19">
-        <v>0.3509195348041114</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P19">
-        <v>0.3509195348041114</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q19">
-        <v>296.763750376608</v>
+        <v>2.861644648179555</v>
       </c>
       <c r="R19">
-        <v>2670.873753389472</v>
+        <v>25.754801833616</v>
       </c>
       <c r="S19">
-        <v>0.001890536204571131</v>
+        <v>1.662520265143671E-05</v>
       </c>
       <c r="T19">
-        <v>0.001890536204571132</v>
+        <v>1.662520265143671E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,51 +1656,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.094568</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H20">
-        <v>18.283704</v>
+        <v>2.652976</v>
       </c>
       <c r="I20">
-        <v>0.005387378065534189</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J20">
-        <v>0.005387378065534191</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1183283333333333</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N20">
-        <v>0.354985</v>
+        <v>274.464523</v>
       </c>
       <c r="O20">
-        <v>0.0008527630389675126</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P20">
-        <v>0.0008527630389675126</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q20">
-        <v>0.7211600738266666</v>
+        <v>80.90531026338311</v>
       </c>
       <c r="R20">
-        <v>6.49044066444</v>
+        <v>728.1477923704479</v>
       </c>
       <c r="S20">
-        <v>4.594156891231855E-06</v>
+        <v>0.0004700329160581748</v>
       </c>
       <c r="T20">
-        <v>4.594156891231855E-06</v>
+        <v>0.0004700329160581748</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.094568</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H21">
-        <v>18.283704</v>
+        <v>2.652976</v>
       </c>
       <c r="I21">
-        <v>0.005387378065534189</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J21">
-        <v>0.005387378065534191</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.46143500000001</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N21">
-        <v>253.384305</v>
+        <v>169.175249</v>
       </c>
       <c r="O21">
-        <v>0.608692677038385</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P21">
-        <v>0.608692677038385</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q21">
-        <v>514.75595898508</v>
+        <v>49.86865282122489</v>
       </c>
       <c r="R21">
-        <v>4632.80363086572</v>
+        <v>448.817875391024</v>
       </c>
       <c r="S21">
-        <v>0.003279257576927882</v>
+        <v>0.0002897202696478839</v>
       </c>
       <c r="T21">
-        <v>0.003279257576927883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.4090393333333334</v>
-      </c>
-      <c r="H22">
-        <v>1.227118</v>
-      </c>
-      <c r="I22">
-        <v>0.0003615760021613883</v>
-      </c>
-      <c r="J22">
-        <v>0.0003615760021613884</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>2.249867</v>
-      </c>
-      <c r="N22">
-        <v>6.749601</v>
-      </c>
-      <c r="O22">
-        <v>0.01621423513832461</v>
-      </c>
-      <c r="P22">
-        <v>0.01621423513832461</v>
-      </c>
-      <c r="Q22">
-        <v>0.9202840977686668</v>
-      </c>
-      <c r="R22">
-        <v>8.282556879918001</v>
-      </c>
-      <c r="S22">
-        <v>5.862678319420119E-06</v>
-      </c>
-      <c r="T22">
-        <v>5.862678319420119E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.4090393333333334</v>
-      </c>
-      <c r="H23">
-        <v>1.227118</v>
-      </c>
-      <c r="I23">
-        <v>0.0003615760021613883</v>
-      </c>
-      <c r="J23">
-        <v>0.0003615760021613884</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.235963666666667</v>
-      </c>
-      <c r="N23">
-        <v>9.707891</v>
-      </c>
-      <c r="O23">
-        <v>0.02332078998021146</v>
-      </c>
-      <c r="P23">
-        <v>0.02332078998021146</v>
-      </c>
-      <c r="Q23">
-        <v>1.323636420904222</v>
-      </c>
-      <c r="R23">
-        <v>11.912727788138</v>
-      </c>
-      <c r="S23">
-        <v>8.432238008290221E-06</v>
-      </c>
-      <c r="T23">
-        <v>8.432238008290224E-06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.4090393333333334</v>
-      </c>
-      <c r="H24">
-        <v>1.227118</v>
-      </c>
-      <c r="I24">
-        <v>0.0003615760021613883</v>
-      </c>
-      <c r="J24">
-        <v>0.0003615760021613884</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>48.69315599999999</v>
-      </c>
-      <c r="N24">
-        <v>146.079468</v>
-      </c>
-      <c r="O24">
-        <v>0.3509195348041114</v>
-      </c>
-      <c r="P24">
-        <v>0.3509195348041114</v>
-      </c>
-      <c r="Q24">
-        <v>19.917416068136</v>
-      </c>
-      <c r="R24">
-        <v>179.256744613224</v>
-      </c>
-      <c r="S24">
-        <v>0.0001268840824748048</v>
-      </c>
-      <c r="T24">
-        <v>0.0001268840824748048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.4090393333333334</v>
-      </c>
-      <c r="H25">
-        <v>1.227118</v>
-      </c>
-      <c r="I25">
-        <v>0.0003615760021613883</v>
-      </c>
-      <c r="J25">
-        <v>0.0003615760021613884</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1183283333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.354985</v>
-      </c>
-      <c r="O25">
-        <v>0.0008527630389675126</v>
-      </c>
-      <c r="P25">
-        <v>0.0008527630389675126</v>
-      </c>
-      <c r="Q25">
-        <v>0.04840094258111111</v>
-      </c>
-      <c r="R25">
-        <v>0.4356084832300001</v>
-      </c>
-      <c r="S25">
-        <v>3.083386504208694E-07</v>
-      </c>
-      <c r="T25">
-        <v>3.083386504208695E-07</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.4090393333333334</v>
-      </c>
-      <c r="H26">
-        <v>1.227118</v>
-      </c>
-      <c r="I26">
-        <v>0.0003615760021613883</v>
-      </c>
-      <c r="J26">
-        <v>0.0003615760021613884</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>84.46143500000001</v>
-      </c>
-      <c r="N26">
-        <v>253.384305</v>
-      </c>
-      <c r="O26">
-        <v>0.608692677038385</v>
-      </c>
-      <c r="P26">
-        <v>0.608692677038385</v>
-      </c>
-      <c r="Q26">
-        <v>34.54804906477667</v>
-      </c>
-      <c r="R26">
-        <v>310.9324415829901</v>
-      </c>
-      <c r="S26">
-        <v>0.0002200886647084524</v>
-      </c>
-      <c r="T26">
-        <v>0.0002200886647084524</v>
+        <v>0.0002897202696478839</v>
       </c>
     </row>
   </sheetData>
